--- a/MasterDocument.xlsx
+++ b/MasterDocument.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="9300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OpCodes" sheetId="1" r:id="rId1"/>
+    <sheet name="Variable Naming" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t># Reserved 1-9</t>
   </si>
@@ -185,9 +186,6 @@
     <t>under some circumstances, android may add some more lives</t>
   </si>
   <si>
-    <t>team_id player_id,  immediately followed by a set_shield, or killed packet</t>
-  </si>
-  <si>
     <t>team_id player_id</t>
   </si>
   <si>
@@ -195,6 +193,75 @@
   </si>
   <si>
     <t>for debugging, gun_index</t>
+  </si>
+  <si>
+    <t>team_id player_id,  immediately followed by a set_shield, or killed packet, (LENGTH = 3??)</t>
+  </si>
+  <si>
+    <t>Force end game (ie all objectives have been captured)</t>
+  </si>
+  <si>
+    <t>my_state</t>
+  </si>
+  <si>
+    <t>capitalFirstLetters</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>all_small_letters</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>ALL_CAPS</t>
+  </si>
+  <si>
+    <t>Op codes,  define</t>
+  </si>
+  <si>
+    <t>my_game</t>
+  </si>
+  <si>
+    <t>my_color</t>
+  </si>
+  <si>
+    <t>my_team</t>
+  </si>
+  <si>
+    <t>my_player</t>
+  </si>
+  <si>
+    <t>my_num_guns</t>
+  </si>
+  <si>
+    <t>my_respawn</t>
+  </si>
+  <si>
+    <t>my_shield</t>
+  </si>
+  <si>
+    <t>my_life</t>
+  </si>
+  <si>
+    <t>my_active</t>
+  </si>
+  <si>
+    <t>to be implemented alter. for now theseare hard coded</t>
+  </si>
+  <si>
+    <t>Change gun to gun index. Tells android if swap gun button is triggered</t>
+  </si>
+  <si>
+    <t>1 = success, 0 = fail. Android needs to handle sound based on status, and reset internal ammo counter.</t>
+  </si>
+  <si>
+    <t>1 = success, 0 = fail. Android needs to handle sound based on status. Android should decrement ammo counter, but ammo master is the arduino</t>
+  </si>
+  <si>
+    <t>How is this dirrerent from SET_LIFE</t>
   </si>
 </sst>
 </file>
@@ -530,11 +597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H11" si="0">IF(ISBLANK(B4),"Y","N")</f>
+        <f>IF(ISBLANK(B4),"Y","N")</f>
         <v>Y</v>
       </c>
     </row>
@@ -601,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H11" si="0">IF(ISBLANK(B5),"Y","N")</f>
         <v>Y</v>
       </c>
     </row>
@@ -618,18 +685,9 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,8 +730,11 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" t="str">
-        <f>IF(ISBLANK(#REF!),"Y","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
     </row>
@@ -695,6 +756,9 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" t="str">
         <f>IF(ISBLANK(B13),"Y","N")</f>
         <v>N</v>
@@ -713,8 +777,11 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H22" si="1">IF(ISBLANK(B14),"Y","N")</f>
@@ -734,6 +801,9 @@
       <c r="D15">
         <v>4</v>
       </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
         <v>N</v>
@@ -779,6 +849,9 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
         <v>N</v>
@@ -829,6 +902,9 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
       <c r="H24" t="str">
         <f>IF(ISBLANK(B24),"Y","N")</f>
         <v>N</v>
@@ -847,6 +923,9 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
       <c r="H25" t="str">
         <f t="shared" ref="H25:H33" si="2">IF(ISBLANK(B25),"Y","N")</f>
         <v>N</v>
@@ -865,6 +944,9 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
       <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
@@ -883,6 +965,9 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
@@ -953,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
@@ -972,8 +1057,17 @@
       <c r="B35" t="s">
         <v>46</v>
       </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
       <c r="E35" t="s">
         <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
       </c>
       <c r="H35" t="str">
         <f>IF(ISBLANK(B35),"Y","N")</f>
@@ -987,6 +1081,9 @@
       <c r="E36" t="s">
         <v>47</v>
       </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:H44" si="3">IF(ISBLANK(B36),"Y","N")</f>
         <v>Y</v>
@@ -1092,7 +1189,7 @@
         <v>29</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="str">
         <f>IF(ISBLANK(B46),"Y","N")</f>
@@ -1112,6 +1209,12 @@
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47:H55" si="4">IF(ISBLANK(B47),"Y","N")</f>
         <v>N</v>
@@ -1128,14 +1231,14 @@
         <v>29</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43</v>
       </c>
@@ -1148,12 +1251,15 @@
       <c r="D49">
         <v>1</v>
       </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44</v>
       </c>
@@ -1162,7 +1268,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45</v>
       </c>
@@ -1175,15 +1281,18 @@
       <c r="D51">
         <v>1</v>
       </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>46</v>
       </c>
@@ -1203,8 +1312,11 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>47</v>
       </c>
@@ -1213,7 +1325,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>48</v>
       </c>
@@ -1224,14 +1336,14 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>49</v>
       </c>
@@ -1242,28 +1354,37 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
       <c r="H57" t="str">
-        <f>IF(ISBLANK(B57),"Y","N")</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H57:H66" si="5">IF(ISBLANK(B57),"Y","N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>51</v>
       </c>
@@ -1277,11 +1398,11 @@
         <v>4</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" ref="H58:H66" si="5">IF(ISBLANK(B58),"Y","N")</f>
-        <v>N</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>52</v>
       </c>
@@ -1299,7 +1420,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>53</v>
       </c>
@@ -1308,7 +1429,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>54</v>
       </c>
@@ -1317,7 +1438,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>55</v>
       </c>
@@ -1326,7 +1447,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>56</v>
       </c>
@@ -1335,7 +1456,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>57</v>
       </c>
@@ -1364,7 +1485,10 @@
         <v>29</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="5"/>
@@ -1784,4 +1908,47 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>